--- a/Sheet01.xlsx
+++ b/Sheet01.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\23536\OneDrive\Desktop\Akash2025\Project05 - AutoMail_Excel_Sheet\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A0B9FE64-B965-4330-81D2-6820F2843ABA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A7EAA460-AFD0-420D-BD47-F75404A93E49}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="156" yWindow="804" windowWidth="22512" windowHeight="10140" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="37">
   <si>
     <t>Sno</t>
   </si>
@@ -118,6 +118,24 @@
   </si>
   <si>
     <t>.net Developer</t>
+  </si>
+  <si>
+    <t>ishika.goel@myparkplus.com</t>
+  </si>
+  <si>
+    <t>pooja.katyal@paynways.com</t>
+  </si>
+  <si>
+    <t>poonam.softech1@gmail.com</t>
+  </si>
+  <si>
+    <t>floe.recruitment@gmail.com</t>
+  </si>
+  <si>
+    <t>support@pelatis.co</t>
+  </si>
+  <si>
+    <t>Software developer</t>
   </si>
 </sst>
 </file>
@@ -133,12 +151,10 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
+      <sz val="8"/>
+      <color rgb="FF222222"/>
+      <name val="Arial"/>
       <family val="2"/>
-      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="3">
@@ -155,91 +171,10 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="8">
+  <borders count="1">
     <border>
       <left/>
       <right/>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
       <top/>
       <bottom/>
       <diagonal/>
@@ -248,15 +183,10 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -537,10 +467,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F38"/>
+  <dimension ref="A1:F13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D12" sqref="D12"/>
+      <selection activeCell="D20" sqref="D20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -554,22 +484,22 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A1" s="5" t="s">
+      <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="6" t="s">
+      <c r="B1" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="C1" s="6" t="s">
+      <c r="C1" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="D1" s="6" t="s">
+      <c r="D1" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="E1" s="6" t="s">
+      <c r="E1" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="F1" s="7" t="s">
+      <c r="F1" s="2" t="s">
         <v>19</v>
       </c>
     </row>
@@ -577,17 +507,16 @@
       <c r="A2">
         <v>1</v>
       </c>
-      <c r="B2" s="3" t="s">
+      <c r="B2" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="3" t="s">
+      <c r="C2" t="s">
         <v>2</v>
       </c>
-      <c r="D2" s="3"/>
-      <c r="E2" s="3">
+      <c r="E2">
         <v>9953621068</v>
       </c>
-      <c r="F2" s="1" t="s">
+      <c r="F2" t="s">
         <v>3</v>
       </c>
     </row>
@@ -595,37 +524,36 @@
       <c r="A3">
         <v>2</v>
       </c>
-      <c r="B3" s="4" t="s">
+      <c r="B3" t="s">
         <v>4</v>
       </c>
-      <c r="C3" s="4" t="s">
+      <c r="C3" t="s">
         <v>5</v>
       </c>
-      <c r="D3" s="4" t="s">
+      <c r="D3" t="s">
         <v>6</v>
       </c>
-      <c r="E3" s="4">
+      <c r="E3">
         <v>9667424847</v>
       </c>
-      <c r="F3" s="2"/>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>3</v>
       </c>
-      <c r="B4" s="4" t="s">
+      <c r="B4" t="s">
         <v>4</v>
       </c>
-      <c r="C4" s="4" t="s">
+      <c r="C4" t="s">
         <v>7</v>
       </c>
-      <c r="D4" s="4" t="s">
+      <c r="D4" t="s">
         <v>8</v>
       </c>
-      <c r="E4" s="4">
+      <c r="E4">
         <v>8448487141</v>
       </c>
-      <c r="F4" s="2" t="s">
+      <c r="F4" t="s">
         <v>9</v>
       </c>
     </row>
@@ -633,17 +561,16 @@
       <c r="A5">
         <v>4</v>
       </c>
-      <c r="B5" s="4" t="s">
+      <c r="B5" t="s">
         <v>4</v>
       </c>
-      <c r="C5" s="4" t="s">
+      <c r="C5" t="s">
         <v>10</v>
       </c>
-      <c r="D5" s="4" t="s">
+      <c r="D5" t="s">
         <v>11</v>
       </c>
-      <c r="E5" s="4"/>
-      <c r="F5" s="2" t="s">
+      <c r="F5" t="s">
         <v>12</v>
       </c>
     </row>
@@ -651,17 +578,16 @@
       <c r="A6">
         <v>5</v>
       </c>
-      <c r="B6" s="4" t="s">
+      <c r="B6" t="s">
         <v>4</v>
       </c>
-      <c r="C6" s="4" t="s">
+      <c r="C6" t="s">
         <v>13</v>
       </c>
-      <c r="D6" s="4" t="s">
+      <c r="D6" t="s">
         <v>14</v>
       </c>
-      <c r="E6" s="4"/>
-      <c r="F6" s="2" t="s">
+      <c r="F6" t="s">
         <v>15</v>
       </c>
     </row>
@@ -669,19 +595,19 @@
       <c r="A7">
         <v>6</v>
       </c>
-      <c r="B7" s="4" t="s">
+      <c r="B7" t="s">
         <v>30</v>
       </c>
-      <c r="C7" s="4" t="s">
+      <c r="C7" t="s">
         <v>23</v>
       </c>
-      <c r="D7" s="4" t="s">
+      <c r="D7" t="s">
         <v>22</v>
       </c>
-      <c r="E7" s="4" t="s">
+      <c r="E7" t="s">
         <v>29</v>
       </c>
-      <c r="F7" s="2" t="s">
+      <c r="F7" t="s">
         <v>21</v>
       </c>
     </row>
@@ -689,231 +615,76 @@
       <c r="A8">
         <v>7</v>
       </c>
-      <c r="B8" s="4" t="s">
+      <c r="B8" t="s">
         <v>25</v>
       </c>
-      <c r="C8" s="4" t="s">
+      <c r="C8" t="s">
         <v>28</v>
       </c>
-      <c r="D8" s="4" t="s">
+      <c r="D8" t="s">
         <v>27</v>
       </c>
-      <c r="E8" s="4" t="s">
+      <c r="E8" t="s">
         <v>26</v>
       </c>
-      <c r="F8" s="2" t="s">
+      <c r="F8" t="s">
         <v>24</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="B9" s="4"/>
-      <c r="C9" s="4"/>
-      <c r="D9" s="4"/>
-      <c r="E9" s="4"/>
-      <c r="F9" s="2"/>
+      <c r="A9">
+        <v>8</v>
+      </c>
+      <c r="B9" t="s">
+        <v>36</v>
+      </c>
+      <c r="F9" t="s">
+        <v>31</v>
+      </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="B10" s="4"/>
-      <c r="C10" s="4"/>
-      <c r="D10" s="4"/>
-      <c r="E10" s="4"/>
-      <c r="F10" s="2"/>
+      <c r="A10">
+        <v>9</v>
+      </c>
+      <c r="B10" t="s">
+        <v>36</v>
+      </c>
+      <c r="F10" t="s">
+        <v>32</v>
+      </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="B11" s="4"/>
-      <c r="C11" s="4"/>
-      <c r="D11" s="4"/>
-      <c r="E11" s="4"/>
-      <c r="F11" s="2"/>
+      <c r="A11">
+        <v>10</v>
+      </c>
+      <c r="B11" t="s">
+        <v>36</v>
+      </c>
+      <c r="F11" t="s">
+        <v>33</v>
+      </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="B12" s="4"/>
-      <c r="C12" s="4"/>
-      <c r="D12" s="4"/>
-      <c r="E12" s="4"/>
-      <c r="F12" s="2"/>
+      <c r="A12">
+        <v>11</v>
+      </c>
+      <c r="B12" t="s">
+        <v>36</v>
+      </c>
+      <c r="F12" t="s">
+        <v>34</v>
+      </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="B13" s="4"/>
-      <c r="C13" s="4"/>
-      <c r="D13" s="4"/>
-      <c r="E13" s="4"/>
-      <c r="F13" s="2"/>
-    </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="B14" s="4"/>
-      <c r="C14" s="4"/>
-      <c r="D14" s="4"/>
-      <c r="E14" s="4"/>
-      <c r="F14" s="2"/>
-    </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="B15" s="4"/>
-      <c r="C15" s="4"/>
-      <c r="D15" s="4"/>
-      <c r="E15" s="4"/>
-      <c r="F15" s="2"/>
-    </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="B16" s="4"/>
-      <c r="C16" s="4"/>
-      <c r="D16" s="4"/>
-      <c r="E16" s="4"/>
-      <c r="F16" s="2"/>
-    </row>
-    <row r="17" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B17" s="4"/>
-      <c r="C17" s="4"/>
-      <c r="D17" s="4"/>
-      <c r="E17" s="4"/>
-      <c r="F17" s="2"/>
-    </row>
-    <row r="18" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B18" s="4"/>
-      <c r="C18" s="4"/>
-      <c r="D18" s="4"/>
-      <c r="E18" s="4"/>
-      <c r="F18" s="2"/>
-    </row>
-    <row r="19" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B19" s="4"/>
-      <c r="C19" s="4"/>
-      <c r="D19" s="4"/>
-      <c r="E19" s="4"/>
-      <c r="F19" s="2"/>
-    </row>
-    <row r="20" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B20" s="4"/>
-      <c r="C20" s="4"/>
-      <c r="D20" s="4"/>
-      <c r="E20" s="4"/>
-      <c r="F20" s="2"/>
-    </row>
-    <row r="21" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B21" s="4"/>
-      <c r="C21" s="4"/>
-      <c r="D21" s="4"/>
-      <c r="E21" s="4"/>
-      <c r="F21" s="2"/>
-    </row>
-    <row r="22" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B22" s="4"/>
-      <c r="C22" s="4"/>
-      <c r="D22" s="4"/>
-      <c r="E22" s="4"/>
-      <c r="F22" s="2"/>
-    </row>
-    <row r="23" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B23" s="4"/>
-      <c r="C23" s="4"/>
-      <c r="D23" s="4"/>
-      <c r="E23" s="4"/>
-      <c r="F23" s="2"/>
-    </row>
-    <row r="24" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B24" s="4"/>
-      <c r="C24" s="4"/>
-      <c r="D24" s="4"/>
-      <c r="E24" s="4"/>
-      <c r="F24" s="2"/>
-    </row>
-    <row r="25" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B25" s="4"/>
-      <c r="C25" s="4"/>
-      <c r="D25" s="4"/>
-      <c r="E25" s="4"/>
-      <c r="F25" s="2"/>
-    </row>
-    <row r="26" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B26" s="4"/>
-      <c r="C26" s="4"/>
-      <c r="D26" s="4"/>
-      <c r="E26" s="4"/>
-      <c r="F26" s="2"/>
-    </row>
-    <row r="27" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B27" s="4"/>
-      <c r="C27" s="4"/>
-      <c r="D27" s="4"/>
-      <c r="E27" s="4"/>
-      <c r="F27" s="2"/>
-    </row>
-    <row r="28" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B28" s="4"/>
-      <c r="C28" s="4"/>
-      <c r="D28" s="4"/>
-      <c r="E28" s="4"/>
-      <c r="F28" s="2"/>
-    </row>
-    <row r="29" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B29" s="4"/>
-      <c r="C29" s="4"/>
-      <c r="D29" s="4"/>
-      <c r="E29" s="4"/>
-      <c r="F29" s="2"/>
-    </row>
-    <row r="30" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B30" s="4"/>
-      <c r="C30" s="4"/>
-      <c r="D30" s="4"/>
-      <c r="E30" s="4"/>
-      <c r="F30" s="2"/>
-    </row>
-    <row r="31" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B31" s="4"/>
-      <c r="C31" s="4"/>
-      <c r="D31" s="4"/>
-      <c r="E31" s="4"/>
-      <c r="F31" s="2"/>
-    </row>
-    <row r="32" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B32" s="4"/>
-      <c r="C32" s="4"/>
-      <c r="D32" s="4"/>
-      <c r="E32" s="4"/>
-      <c r="F32" s="2"/>
-    </row>
-    <row r="33" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B33" s="4"/>
-      <c r="C33" s="4"/>
-      <c r="D33" s="4"/>
-      <c r="E33" s="4"/>
-      <c r="F33" s="2"/>
-    </row>
-    <row r="34" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B34" s="4"/>
-      <c r="C34" s="4"/>
-      <c r="D34" s="4"/>
-      <c r="E34" s="4"/>
-      <c r="F34" s="2"/>
-    </row>
-    <row r="35" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B35" s="4"/>
-      <c r="C35" s="4"/>
-      <c r="D35" s="4"/>
-      <c r="E35" s="4"/>
-      <c r="F35" s="2"/>
-    </row>
-    <row r="36" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B36" s="4"/>
-      <c r="C36" s="4"/>
-      <c r="D36" s="4"/>
-      <c r="E36" s="4"/>
-      <c r="F36" s="2"/>
-    </row>
-    <row r="37" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B37" s="4"/>
-      <c r="C37" s="4"/>
-      <c r="D37" s="4"/>
-      <c r="E37" s="4"/>
-      <c r="F37" s="2"/>
-    </row>
-    <row r="38" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B38" s="4"/>
-      <c r="C38" s="4"/>
-      <c r="D38" s="4"/>
-      <c r="E38" s="4"/>
-      <c r="F38" s="2"/>
+      <c r="A13">
+        <v>12</v>
+      </c>
+      <c r="B13" t="s">
+        <v>36</v>
+      </c>
+      <c r="F13" s="1" t="s">
+        <v>35</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
